--- a/biology/Biologie cellulaire et moléculaire/Myosine/Myosine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Myosine/Myosine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La myosine est une protéine qui joue un rôle fondamental dans les mécanismes de la contraction musculaire. Cette protéine intracytoplasmique se rencontre donc dans les cellules à activité contractile des vertébrés, telles que les cellules musculaires.
 Elle intervient également en tant que moteurs moléculaires associés aux microfilaments dans le déplacement d'organites au sein de la cellule.
@@ -512,7 +524,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des myosines regroupe 18 protéines différentes (de I à XVIII).
 Il existe plusieurs types de myosines, qui diffèrent par le nombre de « têtes » (une ou deux), par la longueur des différentes parties la constituant.
@@ -547,13 +561,12 @@
           <t>Constitution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est composée de deux chaînes lourdes (dimère) de 2 000 acides aminés dont les extrémités C-terminales en hélice α sont surenroulées, ce qui confère à la myosine la forme rigide d'un bâtonnet de 180 nm, et dont les têtes N-terminales de 190 acides aminés constituent les domaines moteurs. Sont associées à ces deux chaînes lourdes deux paires de chaînes légères : une paire de chaînes légères dites essentielles (ELC), et une paire de chaînes légères dites régulatrices (RLC) qui stabilisent la longue hélice près du domaine N-terminal (tête), dans la région du cou qui forme le bras de levier.
 Les chaînes lourdes de myosine peuvent être coupées par la trypsine en deux parties, la queue appelée aussi méromyosine légère (LMM) et la tête, constituée en partie de la portion globulaire de la molécule. Cette dernière est appelée méromyosine lourde (HMM). La méromyosine lourde peut, à son tour être subdivisée en deux parties, le subfragment 1 (S1) et le subfragment 2 (S2). S1 est une association de trois sous unités de 25, 50 et 20 kDa formant la partie globulaire de la molécule. Elle contient les domaines moteurs qui sont des sous unités de 50 et 20 kDa. Ces domaines moteurs possèdent l’activité ATPase et le site de fixation avec l’actine. La sous unité de 20 kDa fixe les chaînes légères.
-Formes
-Il existe différentes isoformes de chaînes lourdes dans le muscle strié squelettique, certaines associées à une vitesse de contraction rapide (MHC-2a, MHC-2d/2x, MHC-2b), d’autres à une vitesse de contraction lente (MHC-1, nommé aussi MHC-1β). Cependant il existe d’autres isoformes de myosine spécifiques de certains muscles (MHC extra-oculaire, MHC mandibulaire) mais aussi une isoforme spécifique du cœur (MHC Iα). Pendant le développement, deux autres isoformes sont aussi exprimées (MHC embryonnaire et MHC néonatal).
-L’expression de ces isoformes de chaîne lourde de myosine, dépend du type de fibre (rapide, lente) mais aussi de l’espèce. Ainsi chez l’homme l’isoforme la plus rapide, hormis dans le muscle extra-oculaire (où l’isoforme MHC extra-oculaire est exprimée), est l’isoforme MHC 2x alors que chez les rongeurs, c’est l’isoforme MHC-2b. Il existe aussi différentes isoformes de chaînes légères de myosine. En ce qui concerne les chaînes légères essentielles, 5 isoformes majeures ont été identifiées chez les mammifères. MLC 1 rapide (MLC – 1 f) et MLC – 3 rapide (MLC – 3 f) sont exprimées dans les muscles rapides. MLC – 1 lente α (MLC – 1 S α) et MLC 1 lente β (MLC – 1 S β) aussi appelée MLC 1 lente ventriculaire (MLC-1 S/V) sont exprimées dans les muscles lents mais aussi respectivement dans les muscles lisses et les ventricules du muscle strié cardiaque. MLC – 1 S α est l’isoforme majoritaire dans les muscles striés squelettiques humains et de lapin, faiblement exprimée chez le rat et est inexistante chez la souris adulte. Au cours du développement, une autre isoforme est exprimée la MLC embryonnaire (MLC 1 emb). Cette isoforme est aussi exprimée dans l’oreillette du muscle strié cardiaque.
 </t>
         </is>
       </c>
@@ -579,10 +592,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Constitution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Formes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe différentes isoformes de chaînes lourdes dans le muscle strié squelettique, certaines associées à une vitesse de contraction rapide (MHC-2a, MHC-2d/2x, MHC-2b), d’autres à une vitesse de contraction lente (MHC-1, nommé aussi MHC-1β). Cependant il existe d’autres isoformes de myosine spécifiques de certains muscles (MHC extra-oculaire, MHC mandibulaire) mais aussi une isoforme spécifique du cœur (MHC Iα). Pendant le développement, deux autres isoformes sont aussi exprimées (MHC embryonnaire et MHC néonatal).
+L’expression de ces isoformes de chaîne lourde de myosine, dépend du type de fibre (rapide, lente) mais aussi de l’espèce. Ainsi chez l’homme l’isoforme la plus rapide, hormis dans le muscle extra-oculaire (où l’isoforme MHC extra-oculaire est exprimée), est l’isoforme MHC 2x alors que chez les rongeurs, c’est l’isoforme MHC-2b. Il existe aussi différentes isoformes de chaînes légères de myosine. En ce qui concerne les chaînes légères essentielles, 5 isoformes majeures ont été identifiées chez les mammifères. MLC 1 rapide (MLC – 1 f) et MLC – 3 rapide (MLC – 3 f) sont exprimées dans les muscles rapides. MLC – 1 lente α (MLC – 1 S α) et MLC 1 lente β (MLC – 1 S β) aussi appelée MLC 1 lente ventriculaire (MLC-1 S/V) sont exprimées dans les muscles lents mais aussi respectivement dans les muscles lisses et les ventricules du muscle strié cardiaque. MLC – 1 S α est l’isoforme majoritaire dans les muscles striés squelettiques humains et de lapin, faiblement exprimée chez le rat et est inexistante chez la souris adulte. Au cours du développement, une autre isoforme est exprimée la MLC embryonnaire (MLC 1 emb). Cette isoforme est aussi exprimée dans l’oreillette du muscle strié cardiaque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Myosine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myosine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque la caldesmone est phosphorylée par la PKC, la myosine s'associe à une autre protéine, l'actine, au niveau des têtes de chaînes légères. La contraction des fibres musculaires résulte du glissement des myofilaments d'actine sur les myofilaments de myosine. L'énergie étant fournie par l'hydrolyse de l'ATP sous l'action enzymatique de la myosine elle-même.
 			Attaché.
@@ -594,34 +647,36 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Myosine</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Myosine</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'omecamtiv mecarbil est une molécule activatrice de la myosine cardiaque[1] et permet une réduction du risque d'événements graves chez le patient porteur d'une insuffisance cardiaque à fonction systolique altérée[2].
-Le mevacanten est une molécule inhibitrice de la myosine cardiaque, utilisé dans la cardiomyopathie hypertrophique de type obstructive[3]. L'aficamtem donne des résultats comparables[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'omecamtiv mecarbil est une molécule activatrice de la myosine cardiaque et permet une réduction du risque d'événements graves chez le patient porteur d'une insuffisance cardiaque à fonction systolique altérée.
+Le mevacanten est une molécule inhibitrice de la myosine cardiaque, utilisé dans la cardiomyopathie hypertrophique de type obstructive. L'aficamtem donne des résultats comparables.
 </t>
         </is>
       </c>
